--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389887.677288714</v>
+        <v>2389887.677288706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500703</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500703</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.340501778</v>
+        <v>3940022.790763974</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.340501778</v>
+        <v>3940022.790763974</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989163</v>
       </c>
     </row>
   </sheetData>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U2" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V2" t="n">
         <v>629.8510241668239</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -967,7 +967,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y5" t="n">
         <v>511.3174326828064</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1198,7 +1198,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E14" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
         <v>404.8896287080119</v>
@@ -1669,7 +1669,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U14" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V17" t="n">
         <v>629.8510241668239</v>
@@ -2025,52 +2025,52 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963204283</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2262,52 +2262,52 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201042</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
         <v>648.751427201877</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4158,52 +4158,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1677.76186642996</v>
       </c>
       <c r="L2" t="n">
-        <v>2631.383042915614</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N2" t="n">
         <v>4728.273641396618</v>
@@ -4363,10 +4363,10 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
         <v>5462.811290515621</v>
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967136</v>
+        <v>401.8559106757458</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>419.2509052683519</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>419.2509052683519</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>419.2509052683519</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4539,7 +4539,7 @@
         <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>252.3693006790323</v>
       </c>
     </row>
     <row r="5">
@@ -4570,28 +4570,28 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2049.12665539136</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2966.719378707943</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4603,16 +4603,16 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
         <v>3583.51196363841</v>
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4743,10 +4743,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4807,13 +4807,13 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2049.12665539136</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
         <v>3681.051378010443</v>
@@ -4837,13 +4837,13 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
         <v>4826.598134791557</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4968,16 +4968,16 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
         <v>457.4949902104935</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5050,49 +5050,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M11" t="n">
-        <v>3240.782198133642</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N11" t="n">
-        <v>3805.825262006314</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O11" t="n">
-        <v>4715.980144947059</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>6413.719626391855</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5241,16 +5241,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
         <v>1303.215227044376</v>
@@ -5287,25 +5287,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2966.719378707943</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
@@ -5317,19 +5317,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5518,25 +5518,25 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1901.586501346477</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.17922466306</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
         <v>6474.295852434775</v>
@@ -5548,10 +5548,10 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U17" t="n">
         <v>5462.811290515621</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5718,13 +5718,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546463</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048489</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351671</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859072006</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>892.83343613462</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>490.930400323665</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5474.616964966544</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000334</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183511</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464338</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543251</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819186</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073909138</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595666039</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430881</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5955,13 +5955,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071678</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342926</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233376</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.67137801045</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010449</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523952</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396624</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337368</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="24">
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6177,28 +6177,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6235,13 +6235,13 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.010275303557</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L26" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M26" t="n">
-        <v>3240.782198133642</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N26" t="n">
         <v>4728.273641396618</v>
@@ -6268,16 +6268,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6414,19 +6414,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
         <v>140.96</v>
@@ -6460,31 +6460,31 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P29" t="n">
         <v>6474.295852434775</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H31" t="n">
         <v>239.3480243885944</v>
@@ -6657,22 +6657,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="32">
@@ -6706,10 +6706,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1841.010275303557</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L32" t="n">
         <v>2819.17922466306</v>
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6940,25 +6940,25 @@
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M35" t="n">
-        <v>3788.860546968407</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N35" t="n">
-        <v>4353.903610841079</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O35" t="n">
-        <v>5264.058493781823</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -6970,7 +6970,7 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
         <v>6118.11576243671</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H37" t="n">
         <v>239.3480243885944</v>
@@ -7131,22 +7131,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7186,19 +7186,19 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M38" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7213,19 +7213,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
         <v>140.96</v>
@@ -7368,22 +7368,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="41">
@@ -7417,25 +7417,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2153.765102156982</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L41" t="n">
-        <v>3071.357825473565</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M41" t="n">
-        <v>3553.537024987068</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7614,13 +7614,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="44">
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7654,25 +7654,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1841.010275303557</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7684,22 +7684,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7851,13 +7851,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>265.4073538855536</v>
       </c>
       <c r="L2" t="n">
-        <v>301.799730824009</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>746.2187031047679</v>
       </c>
       <c r="M5" t="n">
-        <v>721.5474740429294</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>721.547474042929</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>332.9552028337757</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.18810711406093</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>721.5474740429294</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>567.8446588919048</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P20" t="n">
-        <v>864.282983673457</v>
+        <v>283.5305021553738</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357660067</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577655</v>
       </c>
       <c r="L23" t="n">
-        <v>214.8909222650855</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9883,16 +9883,16 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>96.62737647160202</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>931.766039788185</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>835.1386633165826</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L32" t="n">
-        <v>61.18810711406081</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>378.1515460156952</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>29.34358558166878</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11065,19 +11065,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>265.4073538855534</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11302,13 +11302,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L44" t="n">
-        <v>315.9139665186112</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292646877</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24195,7 +24195,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X22" t="n">
         <v>247.4436454301076</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292970999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R25" t="n">
-        <v>540.3327294840725</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S25" t="n">
         <v>316.45975839138</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R28" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S28" t="n">
         <v>316.45975839138</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24700,10 +24700,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D40" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E40" t="n">
         <v>280.9809048369565</v>
@@ -25575,7 +25575,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
@@ -25633,7 +25633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.40339222729</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866086</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.41921426968</v>
+        <v>5299282.597556977</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.0169098785</v>
+        <v>6511928.765912144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.934267302</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010962</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.809996705</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923138</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879226</v>
+        <v>12575159.60768793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835314</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791402</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747492</v>
+        <v>16213098.11275343</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703583</v>
+        <v>17425744.28110861</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659674</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245013</v>
       </c>
       <c r="D2" t="n">
         <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="G2" t="n">
+        <v>761428.9894323124</v>
+      </c>
+      <c r="H2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="H2" t="n">
-        <v>761428.98943233</v>
-      </c>
       <c r="I2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323129</v>
       </c>
       <c r="J2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="L2" t="n">
         <v>761428.9894323124</v>
@@ -26355,10 +26355,10 @@
         <v>761428.9894323123</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="P2" t="n">
         <v>761428.9894323122</v>
@@ -26423,7 +26423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101648.5408862316</v>
+        <v>101648.5408862317</v>
       </c>
       <c r="C4" t="n">
         <v>101346.5898317505</v>
@@ -26435,16 +26435,16 @@
         <v>26356.19966309947</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="G4" t="n">
         <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966310218</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309952</v>
       </c>
       <c r="J4" t="n">
         <v>26356.19966309947</v>
@@ -26456,7 +26456,7 @@
         <v>26356.19966309946</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
         <v>26356.19966309947</v>
@@ -26465,7 +26465,7 @@
         <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
     </row>
     <row r="5">
@@ -26530,31 +26530,31 @@
         <v>-1468875.03866173</v>
       </c>
       <c r="C6" t="n">
-        <v>576125.9123927511</v>
+        <v>576125.9123927508</v>
       </c>
       <c r="D6" t="n">
-        <v>576428.273062684</v>
+        <v>576428.2730626839</v>
       </c>
       <c r="E6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="F6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="G6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="H6" t="n">
-        <v>596093.3897692278</v>
+        <v>596093.389769213</v>
       </c>
       <c r="I6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692134</v>
       </c>
       <c r="J6" t="n">
         <v>-24130.61023078703</v>
       </c>
       <c r="K6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="L6" t="n">
         <v>596093.389769213</v>
@@ -27559,13 +27559,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27696,13 +27696,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>206.6513165611471</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
@@ -27735,7 +27735,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>287.4653528494624</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -27799,19 +27799,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079483</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28042,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28176,7 +28176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>319.1859637116848</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
@@ -34831,16 +34831,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>1012.521640317714</v>
       </c>
       <c r="L2" t="n">
-        <v>1228.661067507426</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
@@ -34992,13 +34992,13 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>38.63038883044603</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35031,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>112.5346471505376</v>
       </c>
     </row>
     <row r="5">
@@ -35062,19 +35062,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>1673.080039788185</v>
       </c>
       <c r="M5" t="n">
-        <v>1208.597170521215</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1648.408810726346</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35460,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>150.9965757542561</v>
+        <v>302.1616117352398</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>1259.816539517193</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35557,13 +35557,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>522.6229655001433</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,13 +35779,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
-        <v>1208.597170521215</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35794,13 +35794,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1314.958945324066</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36265,16 +36265,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P20" t="n">
-        <v>1708.593416095087</v>
+        <v>1127.840934577004</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>3.371561167178431e-10</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,13 +36487,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.046399489926</v>
       </c>
       <c r="L23" t="n">
-        <v>1141.752258948503</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36727,16 +36727,16 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>843.741662903763</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1502.516609356541</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1350.398214681607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1762</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,7 +36979,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L32" t="n">
-        <v>988.049443797478</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37432,19 +37432,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M35" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1222.461978437325</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37678,7 +37678,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>956.2049222650858</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37693,7 +37693,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37909,19 +37909,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1063.028252950772</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>1192.268690568971</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38146,13 +38146,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L44" t="n">
-        <v>1242.775303202028</v>
+        <v>1762</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
